--- a/Voter Turnout/Mayor.xlsx
+++ b/Voter Turnout/Mayor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\OneDrive\Documents\GitHub\Scroll\Voter Turnout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E480DCE0-6C46-40B7-80CE-5C278696D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED24CE-F8AF-4DCF-B6DF-69EDFA0F1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C53E543B-921D-4976-B88A-188509F44D57}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7785" xr2:uid="{C53E543B-921D-4976-B88A-188509F44D57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cities" sheetId="1" r:id="rId1"/>
+    <sheet name="State" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Votes Cast</t>
-  </si>
-  <si>
-    <t>Population 2020</t>
-  </si>
-  <si>
-    <t>Rexburg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -56,24 +45,152 @@
     <t>College</t>
   </si>
   <si>
-    <t>Pocatello</t>
-  </si>
-  <si>
-    <t>Idaho State</t>
-  </si>
-  <si>
-    <t>Univ Idaho</t>
-  </si>
-  <si>
     <t>BYU-Idaho</t>
+  </si>
+  <si>
+    <t>Student Pop</t>
+  </si>
+  <si>
+    <t>SP Source</t>
+  </si>
+  <si>
+    <t>https://www.isu.edu/news/2021-fall/university-reports-sweeping-fall-enrollment-increases.html</t>
+  </si>
+  <si>
+    <t>https://ing.byui.edu/newsroom/10-24-19-fall-2019-enrollment not including 4543 interns</t>
+  </si>
+  <si>
+    <t>https://www.idahoednews.org/features/missing-students/eighteen-months-5000-students-idaho-colleges-and-universities-face-a-deep-enrollment-decline/</t>
+  </si>
+  <si>
+    <t>VotesCast</t>
+  </si>
+  <si>
+    <t>Under18</t>
+  </si>
+  <si>
+    <t>Voting Age Population</t>
+  </si>
+  <si>
+    <t>Registered Voters</t>
+  </si>
+  <si>
+    <t>Ballots Cast</t>
+  </si>
+  <si>
+    <t>% of Registration</t>
+  </si>
+  <si>
+    <t>% of Voting Age Population</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Election Source</t>
+  </si>
+  <si>
+    <t>Moscow, Idaho</t>
+  </si>
+  <si>
+    <t>Rexburg, Idaho</t>
+  </si>
+  <si>
+    <t>Pocatello, Idaho</t>
+  </si>
+  <si>
+    <t>Bozeman, Montana</t>
+  </si>
+  <si>
+    <t>https://www.montana.edu/opa/enrollment/201970/R-AA.pdf</t>
+  </si>
+  <si>
+    <t>https://gallatincomt.virtualtownhall.net/sites/g/files/vyhlif606/f/uploads/2019-municipal_general-11.05.2019.pdf</t>
+  </si>
+  <si>
+    <t>Cheney, Washington</t>
+  </si>
+  <si>
+    <t>Eastern Washington University</t>
+  </si>
+  <si>
+    <t>https://datausa.io/profile/university/eastern-washington-university/</t>
+  </si>
+  <si>
+    <t>Pullman, Washington</t>
+  </si>
+  <si>
+    <t>Washington State University</t>
+  </si>
+  <si>
+    <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>Idaho State University</t>
+  </si>
+  <si>
+    <t>Montana State University</t>
+  </si>
+  <si>
+    <t>Logan, Utah</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
+    <t>https://cms9files.revize.com/loganut/departments/admin/council/OFFICIAL%20General%20November%202,%202021.pdf</t>
+  </si>
+  <si>
+    <t>https://datausa.io/profile/university/utah-state-university/</t>
+  </si>
+  <si>
+    <t>https://news.wsu.edu/press-release/2019/09/18/wsu-sets-systemwide-enrollment-record/</t>
+  </si>
+  <si>
+    <t>https://results.vote.wa.gov/results/20191105/whitman/</t>
+  </si>
+  <si>
+    <t>Pop2020</t>
+  </si>
+  <si>
+    <t>Provo, Utah</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Orem, Utah</t>
+  </si>
+  <si>
+    <t>Utah Valley University</t>
+  </si>
+  <si>
+    <t>https://www.utahcounty.gov/dept/clerk/elections/ElectRslts/2021General/voting_results.pdf</t>
+  </si>
+  <si>
+    <t>https://cms2.revize.com/revize/madisoncounty/Document%20center/Departments/Elections/2019/final%20city%20elections%20nov%202019(77967).pdf</t>
+  </si>
+  <si>
+    <t>https://www.uvu.edu/news/2021/10/2021_10_26_fall_enrollment.html</t>
+  </si>
+  <si>
+    <t>https://tableau.byu.edu/vizportal/api/saml?dest=%2Ft%2FBYUCommunity%2Fviews%2FUniversityEnrollmentStatistics%2FEnrollmentStatistics%3F&amp;embedded=true&amp;siteLuid=f6c7f91a-fe2c-4d57-b493-626708dba051&amp;authSetting=DEFAULT&amp;target_site=BYUCommunity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,9 +218,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,71 +547,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0CA43E-FF74-421B-888B-CA04540174AD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>5318</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25453</v>
+      </c>
+      <c r="F2">
+        <v>9973</v>
+      </c>
+      <c r="G2">
+        <v>3741</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2045</v>
+      </c>
+      <c r="E3">
+        <v>39423</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20592</v>
+      </c>
+      <c r="G3">
+        <v>9028</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>11083</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56326</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12157</v>
+      </c>
+      <c r="G4">
+        <v>14138</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>11149</v>
+      </c>
+      <c r="E5" s="1">
+        <v>53317</v>
+      </c>
+      <c r="F5">
+        <v>16766</v>
+      </c>
+      <c r="G5">
+        <v>7517</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1287</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13255</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8216</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3607</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32901</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20976</v>
+      </c>
+      <c r="G7">
+        <v>4014</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>6585</v>
+      </c>
+      <c r="E8" s="1">
+        <v>52778</v>
+      </c>
+      <c r="F8" s="1">
+        <v>28840</v>
+      </c>
+      <c r="G8">
+        <v>12614</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14426</v>
+      </c>
+      <c r="E9" s="1">
+        <v>115162</v>
+      </c>
+      <c r="F9" s="1">
+        <v>34737</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23493</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16335</v>
+      </c>
+      <c r="E10" s="1">
+        <v>98129</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41262</v>
+      </c>
+      <c r="G10" s="1">
+        <v>27574</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD5C4D-D8D8-4548-9308-BA66C7CCCB2F}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2021</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>5316</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>11083</v>
-      </c>
-      <c r="E4" s="1">
-        <v>56326</v>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="3">
+        <v>646000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>581006</v>
+      </c>
+      <c r="D2" s="3">
+        <v>446045</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B3" s="3">
+        <v>668000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>541164</v>
+      </c>
+      <c r="D3" s="3">
+        <v>332237</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.6139</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.49740000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B4" s="3">
+        <v>686000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>582196</v>
+      </c>
+      <c r="D4" s="3">
+        <v>421935</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.61509999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B5" s="3">
+        <v>693000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>549934</v>
+      </c>
+      <c r="D5" s="3">
+        <v>392909</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B6" s="3">
+        <v>701000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>572430</v>
+      </c>
+      <c r="D6" s="3">
+        <v>421213</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.60089999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B7" s="3">
+        <v>698344</v>
+      </c>
+      <c r="C7" s="3">
+        <v>540247</v>
+      </c>
+      <c r="D7" s="3">
+        <v>328351</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B8" s="3">
+        <v>740000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>611121</v>
+      </c>
+      <c r="D8" s="3">
+        <v>491725</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.66449999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B9" s="3">
+        <v>803000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>625803</v>
+      </c>
+      <c r="D9" s="3">
+        <v>419330</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.5222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B10" s="3">
+        <v>858000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>700430</v>
+      </c>
+      <c r="D10" s="3">
+        <v>508030</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.59209999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="3">
+        <v>888000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>661433</v>
+      </c>
+      <c r="D11" s="3">
+        <v>386720</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5847</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>921000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>728085</v>
+      </c>
+      <c r="D12" s="3">
+        <v>516647</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="3">
+        <v>945000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>679535</v>
+      </c>
+      <c r="D13" s="3">
+        <v>416533</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.44080000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B14" s="3">
+        <v>996000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>798015</v>
+      </c>
+      <c r="D14" s="3">
+        <v>612786</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.61519999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>764880</v>
+      </c>
+      <c r="D15" s="3">
+        <v>458927</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>863538</v>
+      </c>
+      <c r="D16" s="3">
+        <v>667499</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.61129999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1138510</v>
+      </c>
+      <c r="C17" s="3">
+        <v>790676</v>
+      </c>
+      <c r="D17" s="3">
+        <v>457748</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.40210000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1156869</v>
+      </c>
+      <c r="C18" s="3">
+        <v>896234</v>
+      </c>
+      <c r="D18" s="3">
+        <v>666290</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.57589999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1184355</v>
+      </c>
+      <c r="C19" s="3">
+        <v>793709</v>
+      </c>
+      <c r="D19" s="3">
+        <v>445307</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1203384</v>
+      </c>
+      <c r="C20" s="3">
+        <v>936529</v>
+      </c>
+      <c r="D20" s="3">
+        <v>710545</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.59050000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1273151</v>
+      </c>
+      <c r="C21" s="3">
+        <v>917609</v>
+      </c>
+      <c r="D21" s="3">
+        <v>612536</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.48110000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1338864</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1082417</v>
+      </c>
+      <c r="D22" s="3">
+        <v>878527</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.65620000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1418306</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1048263</v>
+      </c>
+      <c r="D23" s="3">
+        <v>599493</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.42299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Voter Turnout/Mayor.xlsx
+++ b/Voter Turnout/Mayor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\OneDrive\Documents\GitHub\Scroll\Voter Turnout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED24CE-F8AF-4DCF-B6DF-69EDFA0F1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFA08B-C732-41E2-AE51-A38E111949C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7785" xr2:uid="{C53E543B-921D-4976-B88A-188509F44D57}"/>
   </bookViews>
@@ -99,27 +99,18 @@
     <t>Pocatello, Idaho</t>
   </si>
   <si>
-    <t>Bozeman, Montana</t>
-  </si>
-  <si>
     <t>https://www.montana.edu/opa/enrollment/201970/R-AA.pdf</t>
   </si>
   <si>
     <t>https://gallatincomt.virtualtownhall.net/sites/g/files/vyhlif606/f/uploads/2019-municipal_general-11.05.2019.pdf</t>
   </si>
   <si>
-    <t>Cheney, Washington</t>
-  </si>
-  <si>
     <t>Eastern Washington University</t>
   </si>
   <si>
     <t>https://datausa.io/profile/university/eastern-washington-university/</t>
   </si>
   <si>
-    <t>Pullman, Washington</t>
-  </si>
-  <si>
     <t>Washington State University</t>
   </si>
   <si>
@@ -175,6 +166,15 @@
   </si>
   <si>
     <t>https://tableau.byu.edu/vizportal/api/saml?dest=%2Ft%2FBYUCommunity%2Fviews%2FUniversityEnrollmentStatistics%2FEnrollmentStatistics%3F&amp;embedded=true&amp;siteLuid=f6c7f91a-fe2c-4d57-b493-626708dba051&amp;authSetting=DEFAULT&amp;target_site=BYUCommunity</t>
+  </si>
+  <si>
+    <t>Bozeman, Mont.</t>
+  </si>
+  <si>
+    <t>Cheney, Wash.</t>
+  </si>
+  <si>
+    <t>Pullman, Wash.</t>
   </si>
 </sst>
 </file>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0CA43E-FF74-421B-888B-CA04540174AD}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>5318</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>2021</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>11083</v>
@@ -671,13 +671,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>11149</v>
@@ -692,21 +692,21 @@
         <v>7517</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2021</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>1287</v>
@@ -721,18 +721,18 @@
         <v>2014</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>3607</v>
@@ -747,21 +747,21 @@
         <v>4014</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>6585</v>
@@ -776,21 +776,21 @@
         <v>12614</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>2021</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>14426</v>
@@ -805,21 +805,21 @@
         <v>23493</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>2021</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>16335</v>
@@ -834,11 +834,15 @@
         <v>27574</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
